--- a/Code/Results/Cases/Case_1_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.8284927806971325</v>
+        <v>1.127786734538432</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.4192035113892274</v>
+        <v>0.2787545109805052</v>
       </c>
       <c r="E2">
-        <v>0.136346942847644</v>
+        <v>0.1661596229618656</v>
       </c>
       <c r="F2">
-        <v>6.793029961305962</v>
+        <v>4.346183224801223</v>
       </c>
       <c r="G2">
-        <v>0.0008346081121202782</v>
+        <v>0.002580812038164213</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1.119429389019643</v>
+        <v>0.4603832145521665</v>
       </c>
       <c r="L2">
-        <v>0.1676981717317432</v>
+        <v>0.1622099368341594</v>
       </c>
       <c r="M2">
-        <v>0.1988311574301065</v>
+        <v>0.2446368497948157</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.7498397683853284</v>
+        <v>1.115670996603114</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.3822454160693667</v>
+        <v>0.2670270745800849</v>
       </c>
       <c r="E3">
-        <v>0.1296454590391747</v>
+        <v>0.16377099887942</v>
       </c>
       <c r="F3">
-        <v>6.066469043618014</v>
+        <v>4.136223002071262</v>
       </c>
       <c r="G3">
-        <v>0.0008441602357823658</v>
+        <v>0.002586348066413418</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.9527090382372307</v>
+        <v>0.4312135845364367</v>
       </c>
       <c r="L3">
-        <v>0.1470779342824287</v>
+        <v>0.1589314389476471</v>
       </c>
       <c r="M3">
-        <v>0.1779381572075991</v>
+        <v>0.2414107227606124</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>0.7029363723785877</v>
+        <v>1.10888833901825</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.3598732949868548</v>
+        <v>0.2597694320987216</v>
       </c>
       <c r="E4">
-        <v>0.1256020411001906</v>
+        <v>0.1622515330430194</v>
       </c>
       <c r="F4">
-        <v>5.628262623265897</v>
+        <v>4.007728903964875</v>
       </c>
       <c r="G4">
-        <v>0.0008501630774108971</v>
+        <v>0.002589921689355165</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.8533143946165467</v>
+        <v>0.4140218462186738</v>
       </c>
       <c r="L4">
-        <v>0.1347967673333628</v>
+        <v>0.1570602074369702</v>
       </c>
       <c r="M4">
-        <v>0.1654856376598133</v>
+        <v>0.2395949333201912</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>0.6841422010885196</v>
+        <v>1.106289480948675</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.3508215725554322</v>
+        <v>0.2567971514159808</v>
       </c>
       <c r="E5">
-        <v>0.1239667085421328</v>
+        <v>0.1616188763680442</v>
       </c>
       <c r="F5">
-        <v>5.451389025936123</v>
+        <v>3.955467725124038</v>
       </c>
       <c r="G5">
-        <v>0.0008526461199638208</v>
+        <v>0.002591422003218685</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.8134542972538839</v>
+        <v>0.4071950506422866</v>
       </c>
       <c r="L5">
-        <v>0.1298773701794715</v>
+        <v>0.1563332267837154</v>
       </c>
       <c r="M5">
-        <v>0.1604968226155883</v>
+        <v>0.2388964702236791</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.6810398973799465</v>
+        <v>1.105867917916726</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.3493220467448737</v>
+        <v>0.2563027046593049</v>
       </c>
       <c r="E6">
-        <v>0.1236957605181832</v>
+        <v>0.1615130060444718</v>
       </c>
       <c r="F6">
-        <v>5.422113963987982</v>
+        <v>3.946795764321791</v>
       </c>
       <c r="G6">
-        <v>0.0008530607124397349</v>
+        <v>0.002591673793269337</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.8068716211465414</v>
+        <v>0.4060722268737038</v>
       </c>
       <c r="L6">
-        <v>0.1290653774497272</v>
+        <v>0.1562146574358394</v>
       </c>
       <c r="M6">
-        <v>0.1596733653667286</v>
+        <v>0.2387829960332404</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.7026816526036157</v>
+        <v>1.108852621224372</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.3597509761425357</v>
+        <v>0.2597294070689742</v>
       </c>
       <c r="E7">
-        <v>0.1255799431474731</v>
+        <v>0.1622430555472292</v>
       </c>
       <c r="F7">
-        <v>5.625870727533965</v>
+        <v>4.007023688219761</v>
       </c>
       <c r="G7">
-        <v>0.0008501964128127644</v>
+        <v>0.002589941744642711</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.852774349187797</v>
+        <v>0.4139290552354282</v>
       </c>
       <c r="L7">
-        <v>0.1347300901629183</v>
+        <v>0.1570502592531966</v>
       </c>
       <c r="M7">
-        <v>0.1654180209204377</v>
+        <v>0.2395853456555237</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.8010657619834944</v>
+        <v>1.123473006905613</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.4063841397514807</v>
+        <v>0.2747224594085793</v>
       </c>
       <c r="E8">
-        <v>0.1340179379520148</v>
+        <v>0.1653468868667298</v>
       </c>
       <c r="F8">
-        <v>6.540688841094322</v>
+        <v>4.27369820781874</v>
       </c>
       <c r="G8">
-        <v>0.0008378744611121188</v>
+        <v>0.002582684743755371</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>1.06126179487589</v>
+        <v>0.4501753518582916</v>
       </c>
       <c r="L8">
-        <v>0.1605030482770786</v>
+        <v>0.1610500277635154</v>
       </c>
       <c r="M8">
-        <v>0.1915436737308092</v>
+        <v>0.2434902065329858</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.006540985593432</v>
+        <v>1.157353167915971</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.5011521985835685</v>
+        <v>0.3036916516762744</v>
       </c>
       <c r="E9">
-        <v>0.1514170881281469</v>
+        <v>0.1710222007816533</v>
       </c>
       <c r="F9">
-        <v>8.411960705473888</v>
+        <v>4.800248952676895</v>
       </c>
       <c r="G9">
-        <v>0.000814694561878843</v>
+        <v>0.002569830910348838</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>1.498959983147842</v>
+        <v>0.5270378421266741</v>
       </c>
       <c r="L9">
-        <v>0.2145735877354724</v>
+        <v>0.1700234219986214</v>
       </c>
       <c r="M9">
-        <v>0.2462032809436536</v>
+        <v>0.2524592284763187</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.167536635838189</v>
+        <v>1.185427432860308</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.5740351689528893</v>
+        <v>0.324740829660584</v>
       </c>
       <c r="E10">
-        <v>0.1651866736216041</v>
+        <v>0.1749523125049448</v>
       </c>
       <c r="F10">
-        <v>9.857045632325281</v>
+        <v>5.189689608410447</v>
       </c>
       <c r="G10">
-        <v>0.0007980902620026153</v>
+        <v>0.002561216490893341</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>1.846573155745659</v>
+        <v>0.5871566670838888</v>
       </c>
       <c r="L10">
-        <v>0.2572711898550892</v>
+        <v>0.1773129685504387</v>
       </c>
       <c r="M10">
-        <v>0.2891533932914001</v>
+        <v>0.2598522962479137</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.243575985766654</v>
+        <v>1.198892094722964</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.6082222308935457</v>
+        <v>0.3342720955928371</v>
       </c>
       <c r="E11">
-        <v>0.1717930374273049</v>
+        <v>0.176690645013835</v>
       </c>
       <c r="F11">
-        <v>10.53578587397033</v>
+        <v>5.36750407090949</v>
       </c>
       <c r="G11">
-        <v>0.0007905836244754056</v>
+        <v>0.002557475449130158</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>2.012623478379794</v>
+        <v>0.6153256589580565</v>
       </c>
       <c r="L11">
-        <v>0.2775568495640925</v>
+        <v>0.1807823210951085</v>
       </c>
       <c r="M11">
-        <v>0.3094821396477343</v>
+        <v>0.2633910481458912</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.272832996320687</v>
+        <v>1.204090615221986</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.621348108415134</v>
+        <v>0.3378754782392548</v>
       </c>
       <c r="E12">
-        <v>0.1743570045244951</v>
+        <v>0.1773419856612328</v>
       </c>
       <c r="F12">
-        <v>10.79647460487962</v>
+        <v>5.434938442781629</v>
       </c>
       <c r="G12">
-        <v>0.0007877433425098327</v>
+        <v>0.002556084199337149</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>2.076866338263244</v>
+        <v>0.6261126514941111</v>
       </c>
       <c r="L12">
-        <v>0.285383732990482</v>
+        <v>0.1821182523572134</v>
       </c>
       <c r="M12">
-        <v>0.3173116507379348</v>
+        <v>0.2647563929908969</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.266510361791092</v>
+        <v>1.202966584273241</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.6185126578731683</v>
+        <v>0.3370996806785058</v>
       </c>
       <c r="E13">
-        <v>0.1738018054626655</v>
+        <v>0.177202012898273</v>
       </c>
       <c r="F13">
-        <v>10.74015724693101</v>
+        <v>5.420410711849001</v>
       </c>
       <c r="G13">
-        <v>0.0007883550219802134</v>
+        <v>0.002556382702562155</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>2.062965891775292</v>
+        <v>0.6237841100839034</v>
       </c>
       <c r="L13">
-        <v>0.2836912468893331</v>
+        <v>0.181829548044135</v>
       </c>
       <c r="M13">
-        <v>0.3156192678935668</v>
+        <v>0.2644612157576134</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.245973335259862</v>
+        <v>1.199317780967391</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.6092983001104813</v>
+        <v>0.3345686637669871</v>
       </c>
       <c r="E14">
-        <v>0.1720026453034897</v>
+        <v>0.1767443689605095</v>
       </c>
       <c r="F14">
-        <v>10.55715573870179</v>
+        <v>5.373049903045455</v>
       </c>
       <c r="G14">
-        <v>0.0007903499336459919</v>
+        <v>0.002557360482043372</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>2.017880040436324</v>
+        <v>0.6162106946287338</v>
       </c>
       <c r="L14">
-        <v>0.2781977304716605</v>
+        <v>0.1808917841001971</v>
       </c>
       <c r="M14">
-        <v>0.3101235325911347</v>
+        <v>0.2635028686500078</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.233455967045444</v>
+        <v>1.197095773983364</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.6036786950275825</v>
+        <v>0.3330175875462658</v>
       </c>
       <c r="E15">
-        <v>0.1709091451709428</v>
+        <v>0.176463152233457</v>
       </c>
       <c r="F15">
-        <v>10.44555835547345</v>
+        <v>5.344053215999736</v>
       </c>
       <c r="G15">
-        <v>0.0007915720346732576</v>
+        <v>0.002557962703700244</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>1.99044846523347</v>
+        <v>0.6115874473708516</v>
       </c>
       <c r="L15">
-        <v>0.2748523772432776</v>
+        <v>0.1803202664181356</v>
       </c>
       <c r="M15">
-        <v>0.3067749270624205</v>
+        <v>0.262919149055918</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.162628577499646</v>
+        <v>1.184561442392919</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.5718243275347277</v>
+        <v>0.324117089106835</v>
       </c>
       <c r="E16">
-        <v>0.164762886271089</v>
+        <v>0.1748377285490266</v>
       </c>
       <c r="F16">
-        <v>9.813166936494213</v>
+        <v>5.178082688682792</v>
       </c>
       <c r="G16">
-        <v>0.0007985814169662603</v>
+        <v>0.002561464539443035</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>1.835899112875438</v>
+        <v>0.5853324406828335</v>
       </c>
       <c r="L16">
-        <v>0.2559645628635963</v>
+        <v>0.1770893330439094</v>
       </c>
       <c r="M16">
-        <v>0.287842232081573</v>
+        <v>0.2596245678770615</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.119935773232015</v>
+        <v>1.177049675553349</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.5525681156300664</v>
+        <v>0.318645937210448</v>
       </c>
       <c r="E17">
-        <v>0.1610886498299013</v>
+        <v>0.1738280409085702</v>
       </c>
       <c r="F17">
-        <v>9.431081985233305</v>
+        <v>5.076437087288753</v>
       </c>
       <c r="G17">
-        <v>0.0008028904819794839</v>
+        <v>0.002563658207679259</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>1.743265198524966</v>
+        <v>0.5694374410355465</v>
       </c>
       <c r="L17">
-        <v>0.2446124430159813</v>
+        <v>0.1751466072406203</v>
       </c>
       <c r="M17">
-        <v>0.2764419856678515</v>
+        <v>0.2576484569709194</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.095639681074061</v>
+        <v>1.172794383523296</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.5415874720364116</v>
+        <v>0.3154948967695788</v>
       </c>
       <c r="E18">
-        <v>0.1590066624791877</v>
+        <v>0.1732426251487764</v>
       </c>
       <c r="F18">
-        <v>9.213287518739492</v>
+        <v>5.018034629293254</v>
       </c>
       <c r="G18">
-        <v>0.0008053736404004453</v>
+        <v>0.002564936682570882</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>1.690714673430421</v>
+        <v>0.5603721781120328</v>
       </c>
       <c r="L18">
-        <v>0.2381627325536755</v>
+        <v>0.174043624909288</v>
       </c>
       <c r="M18">
-        <v>0.2699580717748162</v>
+        <v>0.2565283765224109</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.087456354639471</v>
+        <v>1.171364825926247</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.537885046940147</v>
+        <v>0.3144272775376322</v>
       </c>
       <c r="E19">
-        <v>0.15830675885777</v>
+        <v>0.1730436056002347</v>
       </c>
       <c r="F19">
-        <v>9.139867856008095</v>
+        <v>4.998270938322491</v>
       </c>
       <c r="G19">
-        <v>0.0008062153259357184</v>
+        <v>0.002565372431076759</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>1.673041085030945</v>
+        <v>0.5573160210003607</v>
       </c>
       <c r="L19">
-        <v>0.2359920705195009</v>
+        <v>0.1736726475168808</v>
       </c>
       <c r="M19">
-        <v>0.2677748017066506</v>
+        <v>0.2561519736352835</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.124453212957604</v>
+        <v>1.177842559896476</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.5546079241233315</v>
+        <v>0.3192287799456324</v>
       </c>
       <c r="E20">
-        <v>0.1614764482670514</v>
+        <v>0.1739360058582369</v>
       </c>
       <c r="F20">
-        <v>9.471547604859666</v>
+        <v>5.08725103998097</v>
       </c>
       <c r="G20">
-        <v>0.0008024313182755892</v>
+        <v>0.002563422957091017</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>1.75304916628582</v>
+        <v>0.5711214948355234</v>
       </c>
       <c r="L20">
-        <v>0.2458125006855738</v>
+        <v>0.1753519202345046</v>
       </c>
       <c r="M20">
-        <v>0.2776478639807323</v>
+        <v>0.257857106633665</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.2519924863781</v>
+        <v>1.200386815718247</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.6119996208109626</v>
+        <v>0.3353122413936944</v>
       </c>
       <c r="E21">
-        <v>0.1725292964069585</v>
+        <v>0.1768789765893954</v>
       </c>
       <c r="F21">
-        <v>10.61080309851064</v>
+        <v>5.386958164738644</v>
       </c>
       <c r="G21">
-        <v>0.0007897639553786402</v>
+        <v>0.002557072596466896</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>2.031083880270927</v>
+        <v>0.618431917264445</v>
       </c>
       <c r="L21">
-        <v>0.2798071857121585</v>
+        <v>0.1811666256523523</v>
       </c>
       <c r="M21">
-        <v>0.3117340410205003</v>
+        <v>0.2637836715266459</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.338077011261788</v>
+        <v>1.215702195915156</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.6505757019226621</v>
+        <v>0.3457895261798001</v>
       </c>
       <c r="E22">
-        <v>0.1801238418766529</v>
+        <v>0.178762084735558</v>
       </c>
       <c r="F22">
-        <v>11.37707470909191</v>
+        <v>5.583419000085541</v>
       </c>
       <c r="G22">
-        <v>0.000781496071924126</v>
+        <v>0.002553070257068012</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>2.220873467031424</v>
+        <v>0.6500524580296485</v>
       </c>
       <c r="L22">
-        <v>0.3028829448338826</v>
+        <v>0.185096110536648</v>
       </c>
       <c r="M22">
-        <v>0.334787766945368</v>
+        <v>0.2678044929755785</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.291860259208732</v>
+        <v>1.207474883012765</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.6298775588419687</v>
+        <v>0.3402005831257782</v>
       </c>
       <c r="E23">
-        <v>0.1760316079676008</v>
+        <v>0.1777606583130433</v>
       </c>
       <c r="F23">
-        <v>10.96589547631385</v>
+        <v>5.478508774065858</v>
       </c>
       <c r="G23">
-        <v>0.0007859094267348432</v>
+        <v>0.002555192890091344</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>2.118755985453191</v>
+        <v>0.6331112192804653</v>
       </c>
       <c r="L23">
-        <v>0.2904805882696451</v>
+        <v>0.1829870051971199</v>
       </c>
       <c r="M23">
-        <v>0.3224059404578057</v>
+        <v>0.2656449962029583</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.122410108618766</v>
+        <v>1.177483899649502</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.5536854486631739</v>
+        <v>0.3189652942282919</v>
       </c>
       <c r="E24">
-        <v>0.1613010309172234</v>
+        <v>0.1738872102836426</v>
       </c>
       <c r="F24">
-        <v>9.453247313254877</v>
+        <v>5.082361943519942</v>
       </c>
       <c r="G24">
-        <v>0.0008026388877786963</v>
+        <v>0.002563529259943917</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>1.748623652061156</v>
+        <v>0.5703599069340441</v>
       </c>
       <c r="L24">
-        <v>0.2452697170329827</v>
+        <v>0.1752590548915549</v>
       </c>
       <c r="M24">
-        <v>0.2771024689241628</v>
+        <v>0.2577627262504478</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>0.9493821627496857</v>
+        <v>1.147629313386005</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.4750414136802164</v>
+        <v>0.2958980000023246</v>
       </c>
       <c r="E25">
-        <v>0.1465750112715858</v>
+        <v>0.1695297586093947</v>
       </c>
       <c r="F25">
-        <v>7.895241355562746</v>
+        <v>4.657377551885247</v>
       </c>
       <c r="G25">
-        <v>0.0008208767008461231</v>
+        <v>0.002573161842663153</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>1.37665940490092</v>
+        <v>0.5056128248428422</v>
       </c>
       <c r="L25">
-        <v>0.199489783198004</v>
+        <v>0.1674741063597622</v>
       </c>
       <c r="M25">
-        <v>0.230982115369013</v>
+        <v>0.2498920570404657</v>
       </c>
       <c r="N25">
         <v>0</v>

--- a/Code/Results/Cases/Case_1_234/res_line/pl_mw.xlsx
+++ b/Code/Results/Cases/Case_1_234/res_line/pl_mw.xlsx
@@ -421,22 +421,22 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.127786734538432</v>
+        <v>0.8284927806971893</v>
       </c>
       <c r="C2">
         <v>0</v>
       </c>
       <c r="D2">
-        <v>0.2787545109805052</v>
+        <v>0.4192035113889858</v>
       </c>
       <c r="E2">
-        <v>0.1661596229618656</v>
+        <v>0.1363469428476751</v>
       </c>
       <c r="F2">
-        <v>4.346183224801223</v>
+        <v>6.793029961306075</v>
       </c>
       <c r="G2">
-        <v>0.002580812038164213</v>
+        <v>0.0008346081119926527</v>
       </c>
       <c r="H2">
         <v>0</v>
@@ -448,13 +448,13 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>0.4603832145521665</v>
+        <v>1.119429389019842</v>
       </c>
       <c r="L2">
-        <v>0.1622099368341594</v>
+        <v>0.1676981717318284</v>
       </c>
       <c r="M2">
-        <v>0.2446368497948157</v>
+        <v>0.198831157430071</v>
       </c>
       <c r="N2">
         <v>0</v>
@@ -468,22 +468,22 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.115670996603114</v>
+        <v>0.7498397683852431</v>
       </c>
       <c r="C3">
         <v>0</v>
       </c>
       <c r="D3">
-        <v>0.2670270745800849</v>
+        <v>0.3822454160694946</v>
       </c>
       <c r="E3">
-        <v>0.16377099887942</v>
+        <v>0.1296454590392599</v>
       </c>
       <c r="F3">
-        <v>4.136223002071262</v>
+        <v>6.066469043618099</v>
       </c>
       <c r="G3">
-        <v>0.002586348066413418</v>
+        <v>0.0008441602357737061</v>
       </c>
       <c r="H3">
         <v>0</v>
@@ -495,13 +495,13 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>0.4312135845364367</v>
+        <v>0.9527090382372876</v>
       </c>
       <c r="L3">
-        <v>0.1589314389476471</v>
+        <v>0.147077934282656</v>
       </c>
       <c r="M3">
-        <v>0.2414107227606124</v>
+        <v>0.1779381572076169</v>
       </c>
       <c r="N3">
         <v>0</v>
@@ -515,22 +515,22 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.10888833901825</v>
+        <v>0.7029363723787014</v>
       </c>
       <c r="C4">
         <v>0</v>
       </c>
       <c r="D4">
-        <v>0.2597694320987216</v>
+        <v>0.3598732949868975</v>
       </c>
       <c r="E4">
-        <v>0.1622515330430194</v>
+        <v>0.1256020411002083</v>
       </c>
       <c r="F4">
-        <v>4.007728903964875</v>
+        <v>5.628262623265954</v>
       </c>
       <c r="G4">
-        <v>0.002589921689355165</v>
+        <v>0.0008501630775560317</v>
       </c>
       <c r="H4">
         <v>0</v>
@@ -542,13 +542,13 @@
         <v>0</v>
       </c>
       <c r="K4">
-        <v>0.4140218462186738</v>
+        <v>0.8533143946165467</v>
       </c>
       <c r="L4">
-        <v>0.1570602074369702</v>
+        <v>0.1347967673332775</v>
       </c>
       <c r="M4">
-        <v>0.2395949333201912</v>
+        <v>0.1654856376598026</v>
       </c>
       <c r="N4">
         <v>0</v>
@@ -562,22 +562,22 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.106289480948675</v>
+        <v>0.684142201088406</v>
       </c>
       <c r="C5">
         <v>0</v>
       </c>
       <c r="D5">
-        <v>0.2567971514159808</v>
+        <v>0.350821572555688</v>
       </c>
       <c r="E5">
-        <v>0.1616188763680442</v>
+        <v>0.1239667085421372</v>
       </c>
       <c r="F5">
-        <v>3.955467725124038</v>
+        <v>5.451389025936123</v>
       </c>
       <c r="G5">
-        <v>0.002591422003218685</v>
+        <v>0.0008526461200549826</v>
       </c>
       <c r="H5">
         <v>0</v>
@@ -589,13 +589,13 @@
         <v>0</v>
       </c>
       <c r="K5">
-        <v>0.4071950506422866</v>
+        <v>0.8134542972539123</v>
       </c>
       <c r="L5">
-        <v>0.1563332267837154</v>
+        <v>0.1298773701794858</v>
       </c>
       <c r="M5">
-        <v>0.2388964702236791</v>
+        <v>0.1604968226155847</v>
       </c>
       <c r="N5">
         <v>0</v>
@@ -609,22 +609,22 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.105867917916726</v>
+        <v>0.6810398973800318</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.2563027046593049</v>
+        <v>0.3493220467451295</v>
       </c>
       <c r="E6">
-        <v>0.1615130060444718</v>
+        <v>0.1236957605181184</v>
       </c>
       <c r="F6">
-        <v>3.946795764321791</v>
+        <v>5.422113963987954</v>
       </c>
       <c r="G6">
-        <v>0.002591673793269337</v>
+        <v>0.0008530607126524243</v>
       </c>
       <c r="H6">
         <v>0</v>
@@ -636,13 +636,13 @@
         <v>0</v>
       </c>
       <c r="K6">
-        <v>0.4060722268737038</v>
+        <v>0.8068716211465414</v>
       </c>
       <c r="L6">
-        <v>0.1562146574358394</v>
+        <v>0.1290653774496846</v>
       </c>
       <c r="M6">
-        <v>0.2387829960332404</v>
+        <v>0.1596733653667144</v>
       </c>
       <c r="N6">
         <v>0</v>
@@ -656,22 +656,22 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.108852621224372</v>
+        <v>0.702681652603502</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.2597294070689742</v>
+        <v>0.3597509761424647</v>
       </c>
       <c r="E7">
-        <v>0.1622430555472292</v>
+        <v>0.125579943147466</v>
       </c>
       <c r="F7">
-        <v>4.007023688219761</v>
+        <v>5.625870727533936</v>
       </c>
       <c r="G7">
-        <v>0.002589941744642711</v>
+        <v>0.0008501964127538674</v>
       </c>
       <c r="H7">
         <v>0</v>
@@ -683,13 +683,13 @@
         <v>0</v>
       </c>
       <c r="K7">
-        <v>0.4139290552354282</v>
+        <v>0.8527743491876549</v>
       </c>
       <c r="L7">
-        <v>0.1570502592531966</v>
+        <v>0.1347300901629183</v>
       </c>
       <c r="M7">
-        <v>0.2395853456555237</v>
+        <v>0.1654180209204448</v>
       </c>
       <c r="N7">
         <v>0</v>
@@ -703,22 +703,22 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.123473006905613</v>
+        <v>0.8010657619833239</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.2747224594085793</v>
+        <v>0.4063841397514381</v>
       </c>
       <c r="E8">
-        <v>0.1653468868667298</v>
+        <v>0.1340179379519961</v>
       </c>
       <c r="F8">
-        <v>4.27369820781874</v>
+        <v>6.540688841094351</v>
       </c>
       <c r="G8">
-        <v>0.002582684743755371</v>
+        <v>0.0008378744609645839</v>
       </c>
       <c r="H8">
         <v>0</v>
@@ -730,13 +730,13 @@
         <v>0</v>
       </c>
       <c r="K8">
-        <v>0.4501753518582916</v>
+        <v>1.061261794875577</v>
       </c>
       <c r="L8">
-        <v>0.1610500277635154</v>
+        <v>0.1605030482770715</v>
       </c>
       <c r="M8">
-        <v>0.2434902065329858</v>
+        <v>0.1915436737307701</v>
       </c>
       <c r="N8">
         <v>0</v>
@@ -750,22 +750,22 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.157353167915971</v>
+        <v>1.006540985593404</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.3036916516762744</v>
+        <v>0.5011521985835543</v>
       </c>
       <c r="E9">
-        <v>0.1710222007816533</v>
+        <v>0.1514170881282064</v>
       </c>
       <c r="F9">
-        <v>4.800248952676895</v>
+        <v>8.411960705473859</v>
       </c>
       <c r="G9">
-        <v>0.002569830910348838</v>
+        <v>0.0008146945617642585</v>
       </c>
       <c r="H9">
         <v>0</v>
@@ -777,13 +777,13 @@
         <v>0</v>
       </c>
       <c r="K9">
-        <v>0.5270378421266741</v>
+        <v>1.498959983148069</v>
       </c>
       <c r="L9">
-        <v>0.1700234219986214</v>
+        <v>0.2145735877355719</v>
       </c>
       <c r="M9">
-        <v>0.2524592284763187</v>
+        <v>0.2462032809436892</v>
       </c>
       <c r="N9">
         <v>0</v>
@@ -797,22 +797,22 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.185427432860308</v>
+        <v>1.167536635837962</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.324740829660584</v>
+        <v>0.5740351689530883</v>
       </c>
       <c r="E10">
-        <v>0.1749523125049448</v>
+        <v>0.1651866736216618</v>
       </c>
       <c r="F10">
-        <v>5.189689608410447</v>
+        <v>9.857045632325224</v>
       </c>
       <c r="G10">
-        <v>0.002561216490893341</v>
+        <v>0.000798090261653831</v>
       </c>
       <c r="H10">
         <v>0</v>
@@ -824,13 +824,13 @@
         <v>0</v>
       </c>
       <c r="K10">
-        <v>0.5871566670838888</v>
+        <v>1.846573155745631</v>
       </c>
       <c r="L10">
-        <v>0.1773129685504387</v>
+        <v>0.2572711898554019</v>
       </c>
       <c r="M10">
-        <v>0.2598522962479137</v>
+        <v>0.289153393291457</v>
       </c>
       <c r="N10">
         <v>0</v>
@@ -844,22 +844,22 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.198892094722964</v>
+        <v>1.24357598576654</v>
       </c>
       <c r="C11">
         <v>0</v>
       </c>
       <c r="D11">
-        <v>0.3342720955928371</v>
+        <v>0.6082222308936025</v>
       </c>
       <c r="E11">
-        <v>0.176690645013835</v>
+        <v>0.1717930374273298</v>
       </c>
       <c r="F11">
-        <v>5.36750407090949</v>
+        <v>10.53578587397021</v>
       </c>
       <c r="G11">
-        <v>0.002557475449130158</v>
+        <v>0.0007905836244831817</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -871,13 +871,13 @@
         <v>0</v>
       </c>
       <c r="K11">
-        <v>0.6153256589580565</v>
+        <v>2.012623478379624</v>
       </c>
       <c r="L11">
-        <v>0.1807823210951085</v>
+        <v>0.2775568495642204</v>
       </c>
       <c r="M11">
-        <v>0.2633910481458912</v>
+        <v>0.3094821396477272</v>
       </c>
       <c r="N11">
         <v>0</v>
@@ -891,22 +891,22 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.204090615221986</v>
+        <v>1.272832996320631</v>
       </c>
       <c r="C12">
         <v>0</v>
       </c>
       <c r="D12">
-        <v>0.3378754782392548</v>
+        <v>0.6213481084153329</v>
       </c>
       <c r="E12">
-        <v>0.1773419856612328</v>
+        <v>0.1743570045245413</v>
       </c>
       <c r="F12">
-        <v>5.434938442781629</v>
+        <v>10.79647460487956</v>
       </c>
       <c r="G12">
-        <v>0.002556084199337149</v>
+        <v>0.0007877433423739795</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -918,13 +918,13 @@
         <v>0</v>
       </c>
       <c r="K12">
-        <v>0.6261126514941111</v>
+        <v>2.076866338263159</v>
       </c>
       <c r="L12">
-        <v>0.1821182523572134</v>
+        <v>0.2853837329903399</v>
       </c>
       <c r="M12">
-        <v>0.2647563929908969</v>
+        <v>0.3173116507379063</v>
       </c>
       <c r="N12">
         <v>0</v>
@@ -938,22 +938,22 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.202966584273241</v>
+        <v>1.266510361790836</v>
       </c>
       <c r="C13">
         <v>0</v>
       </c>
       <c r="D13">
-        <v>0.3370996806785058</v>
+        <v>0.6185126578730546</v>
       </c>
       <c r="E13">
-        <v>0.177202012898273</v>
+        <v>0.1738018054626496</v>
       </c>
       <c r="F13">
-        <v>5.420410711849001</v>
+        <v>10.74015724693123</v>
       </c>
       <c r="G13">
-        <v>0.002556382702562155</v>
+        <v>0.0007883550219507126</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -965,13 +965,13 @@
         <v>0</v>
       </c>
       <c r="K13">
-        <v>0.6237841100839034</v>
+        <v>2.062965891775463</v>
       </c>
       <c r="L13">
-        <v>0.181829548044135</v>
+        <v>0.2836912468892479</v>
       </c>
       <c r="M13">
-        <v>0.2644612157576134</v>
+        <v>0.3156192678935952</v>
       </c>
       <c r="N13">
         <v>0</v>
@@ -985,22 +985,22 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.199317780967391</v>
+        <v>1.245973335259578</v>
       </c>
       <c r="C14">
         <v>0</v>
       </c>
       <c r="D14">
-        <v>0.3345686637669871</v>
+        <v>0.6092983001106802</v>
       </c>
       <c r="E14">
-        <v>0.1767443689605095</v>
+        <v>0.1720026453034187</v>
       </c>
       <c r="F14">
-        <v>5.373049903045455</v>
+        <v>10.55715573870179</v>
       </c>
       <c r="G14">
-        <v>0.002557360482043372</v>
+        <v>0.0007903499336591401</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1012,13 +1012,13 @@
         <v>0</v>
       </c>
       <c r="K14">
-        <v>0.6162106946287338</v>
+        <v>2.01788004043641</v>
       </c>
       <c r="L14">
-        <v>0.1808917841001971</v>
+        <v>0.2781977304716605</v>
       </c>
       <c r="M14">
-        <v>0.2635028686500078</v>
+        <v>0.3101235325911347</v>
       </c>
       <c r="N14">
         <v>0</v>
@@ -1032,22 +1032,22 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.197095773983364</v>
+        <v>1.233455967045046</v>
       </c>
       <c r="C15">
         <v>0</v>
       </c>
       <c r="D15">
-        <v>0.3330175875462658</v>
+        <v>0.6036786950277246</v>
       </c>
       <c r="E15">
-        <v>0.176463152233457</v>
+        <v>0.1709091451708389</v>
       </c>
       <c r="F15">
-        <v>5.344053215999736</v>
+        <v>10.44555835547368</v>
       </c>
       <c r="G15">
-        <v>0.002557962703700244</v>
+        <v>0.0007915720348798159</v>
       </c>
       <c r="H15">
         <v>0</v>
@@ -1059,13 +1059,13 @@
         <v>0</v>
       </c>
       <c r="K15">
-        <v>0.6115874473708516</v>
+        <v>1.990448465233584</v>
       </c>
       <c r="L15">
-        <v>0.1803202664181356</v>
+        <v>0.2748523772435334</v>
       </c>
       <c r="M15">
-        <v>0.262919149055918</v>
+        <v>0.3067749270623779</v>
       </c>
       <c r="N15">
         <v>0</v>
@@ -1079,22 +1079,22 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.184561442392919</v>
+        <v>1.162628577499703</v>
       </c>
       <c r="C16">
         <v>0</v>
       </c>
       <c r="D16">
-        <v>0.324117089106835</v>
+        <v>0.5718243275350119</v>
       </c>
       <c r="E16">
-        <v>0.1748377285490266</v>
+        <v>0.1647628862711645</v>
       </c>
       <c r="F16">
-        <v>5.178082688682792</v>
+        <v>9.813166936494213</v>
       </c>
       <c r="G16">
-        <v>0.002561464539443035</v>
+        <v>0.0007985814169661422</v>
       </c>
       <c r="H16">
         <v>0</v>
@@ -1106,13 +1106,13 @@
         <v>0</v>
       </c>
       <c r="K16">
-        <v>0.5853324406828335</v>
+        <v>1.835899112875381</v>
       </c>
       <c r="L16">
-        <v>0.1770893330439094</v>
+        <v>0.2559645628639799</v>
       </c>
       <c r="M16">
-        <v>0.2596245678770615</v>
+        <v>0.287842232081573</v>
       </c>
       <c r="N16">
         <v>0</v>
@@ -1126,22 +1126,22 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.177049675553349</v>
+        <v>1.119935773231759</v>
       </c>
       <c r="C17">
         <v>0</v>
       </c>
       <c r="D17">
-        <v>0.318645937210448</v>
+        <v>0.5525681156298106</v>
       </c>
       <c r="E17">
-        <v>0.1738280409085702</v>
+        <v>0.1610886498298916</v>
       </c>
       <c r="F17">
-        <v>5.076437087288753</v>
+        <v>9.431081985233305</v>
       </c>
       <c r="G17">
-        <v>0.002563658207679259</v>
+        <v>0.0008028904822068306</v>
       </c>
       <c r="H17">
         <v>0</v>
@@ -1153,13 +1153,13 @@
         <v>0</v>
       </c>
       <c r="K17">
-        <v>0.5694374410355465</v>
+        <v>1.743265198524881</v>
       </c>
       <c r="L17">
-        <v>0.1751466072406203</v>
+        <v>0.244612443016166</v>
       </c>
       <c r="M17">
-        <v>0.2576484569709194</v>
+        <v>0.2764419856678231</v>
       </c>
       <c r="N17">
         <v>0</v>
@@ -1173,22 +1173,22 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.172794383523296</v>
+        <v>1.095639681074005</v>
       </c>
       <c r="C18">
         <v>0</v>
       </c>
       <c r="D18">
-        <v>0.3154948967695788</v>
+        <v>0.541587472036241</v>
       </c>
       <c r="E18">
-        <v>0.1732426251487764</v>
+        <v>0.1590066624792428</v>
       </c>
       <c r="F18">
-        <v>5.018034629293254</v>
+        <v>9.213287518739492</v>
       </c>
       <c r="G18">
-        <v>0.002564936682570882</v>
+        <v>0.0008053736402853901</v>
       </c>
       <c r="H18">
         <v>0</v>
@@ -1200,13 +1200,13 @@
         <v>0</v>
       </c>
       <c r="K18">
-        <v>0.5603721781120328</v>
+        <v>1.690714673430563</v>
       </c>
       <c r="L18">
-        <v>0.174043624909288</v>
+        <v>0.238162732553775</v>
       </c>
       <c r="M18">
-        <v>0.2565283765224109</v>
+        <v>0.2699580717748731</v>
       </c>
       <c r="N18">
         <v>0</v>
@@ -1220,22 +1220,22 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.171364825926247</v>
+        <v>1.087456354638874</v>
       </c>
       <c r="C19">
         <v>0</v>
       </c>
       <c r="D19">
-        <v>0.3144272775376322</v>
+        <v>0.5378850469396923</v>
       </c>
       <c r="E19">
-        <v>0.1730436056002347</v>
+        <v>0.1583067588576794</v>
       </c>
       <c r="F19">
-        <v>4.998270938322491</v>
+        <v>9.139867856008038</v>
       </c>
       <c r="G19">
-        <v>0.002565372431076759</v>
+        <v>0.0008062153258307821</v>
       </c>
       <c r="H19">
         <v>0</v>
@@ -1247,13 +1247,13 @@
         <v>0</v>
       </c>
       <c r="K19">
-        <v>0.5573160210003607</v>
+        <v>1.673041085031088</v>
       </c>
       <c r="L19">
-        <v>0.1736726475168808</v>
+        <v>0.2359920705194298</v>
       </c>
       <c r="M19">
-        <v>0.2561519736352835</v>
+        <v>0.2677748017066541</v>
       </c>
       <c r="N19">
         <v>0</v>
@@ -1267,22 +1267,22 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.177842559896476</v>
+        <v>1.124453212957661</v>
       </c>
       <c r="C20">
         <v>0</v>
       </c>
       <c r="D20">
-        <v>0.3192287799456324</v>
+        <v>0.5546079241229336</v>
       </c>
       <c r="E20">
-        <v>0.1739360058582369</v>
+        <v>0.1614764482670763</v>
       </c>
       <c r="F20">
-        <v>5.08725103998097</v>
+        <v>9.47154760485958</v>
       </c>
       <c r="G20">
-        <v>0.002563422957091017</v>
+        <v>0.0008024313185149359</v>
       </c>
       <c r="H20">
         <v>0</v>
@@ -1294,13 +1294,13 @@
         <v>0</v>
       </c>
       <c r="K20">
-        <v>0.5711214948355234</v>
+        <v>1.753049166285933</v>
       </c>
       <c r="L20">
-        <v>0.1753519202345046</v>
+        <v>0.2458125006854601</v>
       </c>
       <c r="M20">
-        <v>0.257857106633665</v>
+        <v>0.2776478639807252</v>
       </c>
       <c r="N20">
         <v>0</v>
@@ -1314,22 +1314,22 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.200386815718247</v>
+        <v>1.251992486377958</v>
       </c>
       <c r="C21">
         <v>0</v>
       </c>
       <c r="D21">
-        <v>0.3353122413936944</v>
+        <v>0.6119996208112468</v>
       </c>
       <c r="E21">
-        <v>0.1768789765893954</v>
+        <v>0.1725292964068537</v>
       </c>
       <c r="F21">
-        <v>5.386958164738644</v>
+        <v>10.61080309851059</v>
       </c>
       <c r="G21">
-        <v>0.002557072596466896</v>
+        <v>0.0007897639554994416</v>
       </c>
       <c r="H21">
         <v>0</v>
@@ -1341,13 +1341,13 @@
         <v>0</v>
       </c>
       <c r="K21">
-        <v>0.618431917264445</v>
+        <v>2.031083880270643</v>
       </c>
       <c r="L21">
-        <v>0.1811666256523523</v>
+        <v>0.2798071857120732</v>
       </c>
       <c r="M21">
-        <v>0.2637836715266459</v>
+        <v>0.3117340410205145</v>
       </c>
       <c r="N21">
         <v>0</v>
@@ -1361,22 +1361,22 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.215702195915156</v>
+        <v>1.338077011261703</v>
       </c>
       <c r="C22">
         <v>0</v>
       </c>
       <c r="D22">
-        <v>0.3457895261798001</v>
+        <v>0.6505757019231453</v>
       </c>
       <c r="E22">
-        <v>0.178762084735558</v>
+        <v>0.1801238418766236</v>
       </c>
       <c r="F22">
-        <v>5.583419000085541</v>
+        <v>11.37707470909203</v>
       </c>
       <c r="G22">
-        <v>0.002553070257068012</v>
+        <v>0.0007814960717849595</v>
       </c>
       <c r="H22">
         <v>0</v>
@@ -1388,13 +1388,13 @@
         <v>0</v>
       </c>
       <c r="K22">
-        <v>0.6500524580296485</v>
+        <v>2.220873467031311</v>
       </c>
       <c r="L22">
-        <v>0.185096110536648</v>
+        <v>0.3028829448343799</v>
       </c>
       <c r="M22">
-        <v>0.2678044929755785</v>
+        <v>0.3347877669453823</v>
       </c>
       <c r="N22">
         <v>0</v>
@@ -1408,22 +1408,22 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.207474883012765</v>
+        <v>1.291860259209017</v>
       </c>
       <c r="C23">
         <v>0</v>
       </c>
       <c r="D23">
-        <v>0.3402005831257782</v>
+        <v>0.6298775588422814</v>
       </c>
       <c r="E23">
-        <v>0.1777606583130433</v>
+        <v>0.1760316079676132</v>
       </c>
       <c r="F23">
-        <v>5.478508774065858</v>
+        <v>10.96589547631396</v>
       </c>
       <c r="G23">
-        <v>0.002555192890091344</v>
+        <v>0.0007859094267423927</v>
       </c>
       <c r="H23">
         <v>0</v>
@@ -1435,13 +1435,13 @@
         <v>0</v>
       </c>
       <c r="K23">
-        <v>0.6331112192804653</v>
+        <v>2.118755985453305</v>
       </c>
       <c r="L23">
-        <v>0.1829870051971199</v>
+        <v>0.2904805882695172</v>
       </c>
       <c r="M23">
-        <v>0.2656449962029583</v>
+        <v>0.3224059404577915</v>
       </c>
       <c r="N23">
         <v>0</v>
@@ -1455,22 +1455,22 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.177483899649502</v>
+        <v>1.122410108618169</v>
       </c>
       <c r="C24">
         <v>0</v>
       </c>
       <c r="D24">
-        <v>0.3189652942282919</v>
+        <v>0.5536854486632592</v>
       </c>
       <c r="E24">
-        <v>0.1738872102836426</v>
+        <v>0.1613010309171949</v>
       </c>
       <c r="F24">
-        <v>5.082361943519942</v>
+        <v>9.45324731325482</v>
       </c>
       <c r="G24">
-        <v>0.002563529259943917</v>
+        <v>0.0008026388876858128</v>
       </c>
       <c r="H24">
         <v>0</v>
@@ -1482,13 +1482,13 @@
         <v>0</v>
       </c>
       <c r="K24">
-        <v>0.5703599069340441</v>
+        <v>1.748623652061156</v>
       </c>
       <c r="L24">
-        <v>0.1752590548915549</v>
+        <v>0.2452697170331817</v>
       </c>
       <c r="M24">
-        <v>0.2577627262504478</v>
+        <v>0.2771024689241912</v>
       </c>
       <c r="N24">
         <v>0</v>
@@ -1502,22 +1502,22 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.147629313386005</v>
+        <v>0.949382162749572</v>
       </c>
       <c r="C25">
         <v>0</v>
       </c>
       <c r="D25">
-        <v>0.2958980000023246</v>
+        <v>0.4750414136803016</v>
       </c>
       <c r="E25">
-        <v>0.1695297586093947</v>
+        <v>0.1465750112715556</v>
       </c>
       <c r="F25">
-        <v>4.657377551885247</v>
+        <v>7.895241355562632</v>
       </c>
       <c r="G25">
-        <v>0.002573161842663153</v>
+        <v>0.0008208767007494041</v>
       </c>
       <c r="H25">
         <v>0</v>
@@ -1529,13 +1529,13 @@
         <v>0</v>
       </c>
       <c r="K25">
-        <v>0.5056128248428422</v>
+        <v>1.376659404900863</v>
       </c>
       <c r="L25">
-        <v>0.1674741063597622</v>
+        <v>0.1994897831979188</v>
       </c>
       <c r="M25">
-        <v>0.2498920570404657</v>
+        <v>0.2309821153690059</v>
       </c>
       <c r="N25">
         <v>0</v>
